--- a/cd/doc/formaty_plikow_xls_do_importu_danych/grupyHierarchia.xlsx
+++ b/cd/doc/formaty_plikow_xls_do_importu_danych/grupyHierarchia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>Integration Id</t>
   </si>
@@ -25,6 +25,48 @@
   </si>
   <si>
     <t>Grupa Podrzedna(Skrót)</t>
+  </si>
+  <si>
+    <t>Wiecej niż dwa dwa poziomy? (Tak/Nie)</t>
+  </si>
+  <si>
+    <t>Nie</t>
+  </si>
+  <si>
+    <t>KIERUNEK1</t>
+  </si>
+  <si>
+    <t>KIERUNEK2</t>
+  </si>
+  <si>
+    <t>K1_CW1</t>
+  </si>
+  <si>
+    <t>K1_CW2</t>
+  </si>
+  <si>
+    <t>K1_CW3</t>
+  </si>
+  <si>
+    <t>K2_CW1</t>
+  </si>
+  <si>
+    <t>K2_CW2</t>
+  </si>
+  <si>
+    <t>K2_LAB1</t>
+  </si>
+  <si>
+    <t>K2_LAB2</t>
+  </si>
+  <si>
+    <t>K2_LAB3</t>
+  </si>
+  <si>
+    <t>K2_LAB4</t>
+  </si>
+  <si>
+    <t>Tak</t>
   </si>
 </sst>
 </file>
@@ -418,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -429,7 +471,7 @@
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
     <col min="5" max="12" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -443,10 +485,20 @@
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -457,8 +509,15 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -469,12 +528,26 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -483,6 +556,105 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
